--- a/ttsensory.xlsx
+++ b/ttsensory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1C286FA6-8FC1-410A-B253-6C2942FBE75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E16EEBF9-0ED0-4E91-86BF-C3A15B9979AF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1C286FA6-8FC1-410A-B253-6C2942FBE75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C94845B-F5B4-4F74-A33D-9683956E7D9B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7C24D367-E862-4E41-AB93-A320730236F7}"/>
+    <workbookView xWindow="9720" yWindow="3564" windowWidth="24168" windowHeight="14388" xr2:uid="{7C24D367-E862-4E41-AB93-A320730236F7}"/>
   </bookViews>
   <sheets>
     <sheet name="sensory onset" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>study</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Kim</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -464,301 +467,340 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED8248-D0F3-420C-8F6B-7047837BC857}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Zupcic 2017</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2017</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
       </c>
       <c r="D2">
         <v>40</v>
       </c>
       <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
         <v>8.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.51</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Pongraweewan 2016</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2016</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>46</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2.0699999999999998</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Rohan 2014</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2014</v>
-      </c>
-      <c r="C4">
-        <v>25</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
         <v>8.7200000000000006</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.84</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.8</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Laur 2012</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2012</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>27</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
         <v>6.67</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>2.2200000000000002</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Abdelhady 2022</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2022</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
       </c>
       <c r="D6">
         <v>22</v>
       </c>
       <c r="E6">
+        <v>22</v>
+      </c>
+      <c r="F6">
         <v>8.59</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7.8</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.8</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>B7 &amp; " " &amp; C7</f>
+        <v>Ozmen 2013</v>
+      </c>
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2013</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>38</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.86</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.31</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>B8 &amp; " " &amp; C8</f>
+        <v>Laigle 2012</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2012</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
       </c>
       <c r="D8">
         <v>15</v>
       </c>
       <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>24.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>13.2</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>B9 &amp; " " &amp; C9</f>
+        <v>Martin 1993</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1993</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
         <v>23</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>14</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>B10 &amp; " " &amp; C10</f>
+        <v>Kim 2011</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>15.6</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13.3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>10</v>
       </c>
     </row>
